--- a/data/trans_dic/P02E$otras-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 12,37</t>
+          <t>1,45; 12,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 14,28</t>
+          <t>3,45; 14,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 21,24</t>
+          <t>6,51; 21,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 11,67</t>
+          <t>2,05; 12,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,84</t>
+          <t>2,89; 10,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 26,97</t>
+          <t>11,18; 26,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,01</t>
+          <t>2,46; 9,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,46</t>
+          <t>3,59; 10,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 21,89</t>
+          <t>10,85; 21,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 14,5</t>
+          <t>1,51; 13,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 9,07</t>
+          <t>1,61; 8,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 10,46</t>
+          <t>1,26; 10,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 21,63</t>
+          <t>8,88; 21,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,81</t>
+          <t>1,94; 7,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 12,08</t>
+          <t>3,04; 11,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,64</t>
+          <t>7,65; 16,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,03</t>
+          <t>2,59; 6,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,57</t>
+          <t>3,26; 9,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 17,61</t>
+          <t>3,05; 17,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 12,31</t>
+          <t>1,99; 11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,59</t>
+          <t>1,44; 11,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,42</t>
+          <t>0,92; 8,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 14,0</t>
+          <t>4,63; 14,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 20,78</t>
+          <t>5,13; 18,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,0</t>
+          <t>2,89; 9,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,07</t>
+          <t>4,2; 10,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 13,28</t>
+          <t>4,21; 13,16</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 17,55</t>
+          <t>4,6; 17,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 16,93</t>
+          <t>4,53; 17,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 16,42</t>
+          <t>3,16; 16,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 17,14</t>
+          <t>5,72; 17,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 16,37</t>
+          <t>6,73; 15,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,75</t>
+          <t>1,98; 10,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,83</t>
+          <t>6,36; 14,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,6</t>
+          <t>6,56; 14,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,47</t>
+          <t>3,22; 10,49</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,66</t>
+          <t>0,0; 17,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 18,15</t>
+          <t>2,01; 19,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,39 +1141,39 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,2</t>
+          <t>0,0; 13,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 17,3</t>
+          <t>4,39; 17,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 14,18</t>
+          <t>3,08; 14,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,15</t>
+          <t>1,03; 10,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 14,51</t>
+          <t>4,83; 14,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,54</t>
+          <t>1,49; 7,95</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 22,58</t>
+          <t>3,48; 23,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,17</t>
+          <t>1,09; 8,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>0,0; 9,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 13,56</t>
+          <t>1,47; 13,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,47</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,44</t>
+          <t>0,0; 8,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 14,42</t>
+          <t>3,84; 13,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,43</t>
+          <t>0,96; 5,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,05</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 17,56</t>
+          <t>5,29; 16,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,92</t>
+          <t>2,64; 8,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,61</t>
+          <t>1,81; 10,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,81</t>
+          <t>1,45; 5,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,79; 19,24</t>
+          <t>9,09; 19,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,28</t>
+          <t>2,36; 6,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,98</t>
+          <t>2,53; 5,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,99</t>
+          <t>7,29; 14,28</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,28; 13,33</t>
+          <t>4,02; 13,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,24</t>
+          <t>1,07; 6,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,97</t>
+          <t>2,72; 8,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,34</t>
+          <t>2,53; 9,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,76</t>
+          <t>1,78; 5,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,82</t>
+          <t>5,84; 12,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,57</t>
+          <t>3,87; 9,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,85</t>
+          <t>1,84; 4,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,98</t>
+          <t>5,28; 10,07</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,62</t>
+          <t>6,22; 10,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,88</t>
+          <t>3,82; 6,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,89</t>
+          <t>3,68; 6,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,9</t>
+          <t>4,65; 7,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,62</t>
+          <t>4,2; 6,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,29</t>
+          <t>7,71; 11,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,26</t>
+          <t>5,7; 8,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,25</t>
+          <t>4,42; 6,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,95</t>
+          <t>6,51; 9,09</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es familiar, amigo/a, vecino/a, u otros</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2912</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6556</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8851</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6369</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8398</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18301</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9281</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14955</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27151</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>936; 7936</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3064; 12707</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4810; 16018</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2139; 12759</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4069; 15386</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11043; 26507</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4155; 16048</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8248; 23703</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18734; 37240</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5817</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3117</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19951</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9294</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9037</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23977</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15110</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12153</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1040; 9599</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2088; 11264</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1004; 8617</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12254; 29143</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4123; 15859</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4077; 16044</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15840; 34562</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8852; 23363</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6967; 20783</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6147</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2665</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11599</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10015</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16550</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11293</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2126; 12403</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1860; 10621</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>860; 7178</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>969; 8892</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6472; 20193</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4120; 15054</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5046; 17210</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9801; 25293</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5893; 18444</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8549</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10209</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4850</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12161</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19372</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5913</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20709</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29581</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10763</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3934; 15136</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5036; 19486</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1871; 10023</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6673; 20466</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12166; 28849</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2352; 12571</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12873; 29967</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19166; 41768</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5726; 18642</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1678</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2141</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9031</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5953</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3818</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13162</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5953</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5380</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1107; 10894</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6921</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4056; 15791</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2586; 12325</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>863; 8402</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7115; 21611</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2322; 12429</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5915</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4094</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10009</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4868</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2071; 14191</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>895; 6989</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5868</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1020; 9352</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6187</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5978</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4948; 17927</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1843; 10740</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8135</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11693</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>10775</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6470</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9016</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27401</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>13681</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>19792</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>33871</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5900; 18714</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5673; 18036</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2223; 13002</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7017</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4109; 16211</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>18522; 40479</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7872; 21817</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12597; 29678</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23789; 46597</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>10481</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6002</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12044</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10629</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>11818</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>28220</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>21110</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>17820</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>40264</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>5440; 18734</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2245; 13062</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6155; 20088</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4991; 18521</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>6362; 20484</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>18781; 39452</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>12845; 31301</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>10442; 26675</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>28930; 55179</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>51400</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>51276</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>39095</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>61201</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>80562</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>104647</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>112601</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>131838</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>143742</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>38959; 65075</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>37619; 67032</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>27861; 51102</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>46801; 77212</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>63709; 100977</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>85700; 126184</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>93071; 134732</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>110604; 158601</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>121619; 169745</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>